--- a/data.xlsx
+++ b/data.xlsx
@@ -5,33 +5,35 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSBA\BDC5101\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Manifold-Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B6356A-1B06-4CE8-9ADA-E4D620D3F762}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B4F951-B504-46E4-9E2B-0F51FC077626}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Terminal" sheetId="1" r:id="rId1"/>
-    <sheet name="Maint" sheetId="6" r:id="rId2"/>
+    <sheet name="Ship" sheetId="2" r:id="rId2"/>
     <sheet name="Pump" sheetId="5" r:id="rId3"/>
-    <sheet name="Ship" sheetId="2" r:id="rId4"/>
+    <sheet name="Tank" sheetId="8" r:id="rId4"/>
+    <sheet name="Maint" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Number of Jetties</t>
-  </si>
-  <si>
-    <t>Number of Tanks</t>
-  </si>
-  <si>
-    <t>Number of Pumps</t>
   </si>
   <si>
     <t>Ship_Volume</t>
@@ -49,26 +51,32 @@
     <t>Maint_Stop_Time</t>
   </si>
   <si>
-    <t>Pump1</t>
+    <t>onboarding valve</t>
   </si>
   <si>
-    <t>Pump2</t>
+    <t>pump valve</t>
   </si>
   <si>
-    <t>Pump3</t>
+    <t>offboarding valve</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,8 +99,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,40 +440,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -473,92 +470,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9122F8-1D21-48BC-B51E-71C9057767C6}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AFAE6D-821E-48E8-88E4-64EBA5CECBA2}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,26 +485,567 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3000</v>
       </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AFAE6D-821E-48E8-88E4-64EBA5CECBA2}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D732CE35-972E-444F-8F26-68801852DF84}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9122F8-1D21-48BC-B51E-71C9057767C6}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
         <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-1</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-1</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-1</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-1</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-1</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-1</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-1</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>-1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-1</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>-1</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-1</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>-1</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Manifold-Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B4F951-B504-46E4-9E2B-0F51FC077626}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8255955F-6F2B-4C86-A88B-6F03B9C531A0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Terminal" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Number of Jetties</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>offboarding valve</t>
+  </si>
+  <si>
+    <t>Existing Stock</t>
+  </si>
+  <si>
+    <t>Docking Cost</t>
   </si>
 </sst>
 </file>
@@ -471,10 +477,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,36 +489,48 @@
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2500</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
       <c r="B3">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3000</v>
       </c>
       <c r="B4">
         <v>17</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -568,37 +586,52 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D732CE35-972E-444F-8F26-68801852DF84}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20000</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>30000</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15000</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20000</v>
+      </c>
+      <c r="B5">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
